--- a/Medias_datos_fit_tibia.xlsx
+++ b/Medias_datos_fit_tibia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomás Fernández C\Documents\GitHub\Proyecto-Fisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Fernandez\Documents\GitHub\Proyecto-Fisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A001213F-1EC6-4F7F-ACF6-FF9D9856B2FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49758023-D274-42AA-AB17-FCFB30FB033C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32772" yWindow="32772" windowWidth="25596" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,8 +271,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>680720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -287,8 +287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5969000" y="50800"/>
-          <a:ext cx="3421380" cy="5427980"/>
+          <a:off x="5824220" y="50800"/>
+          <a:ext cx="3324225" cy="5902325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1091,31 +1091,31 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G6" sqref="G6:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1155,12 +1155,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>32</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1245,7 +1245,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,22 +1283,22 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1306,7 +1306,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1329,7 +1329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1343,7 +1343,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
